--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T13:56:13+00:00</t>
+    <t>2024-09-18T14:01:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:01:59+00:00</t>
+    <t>2024-09-18T14:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4094" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4094" uniqueCount="364">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:11:02+00:00</t>
+    <t>2024-10-30T10:16:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -596,7 +596,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -890,6 +890,9 @@
     <t>mes-observation</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Bundle.entry:mes-observation.id</t>
   </si>
   <si>
@@ -912,7 +915,7 @@
 MeasurementResultsTests</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-fr-cholesterol-hdl|https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-fr-cholesterol-ldl|https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-fr-cholesterol-total|https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-fr-cholesterol-triglycerides}
+    <t xml:space="preserve">Observation {https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-observation-cholesterol-ldl|https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-observation-cholesterol-hdl|https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-observation-cholesterol-total|https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-observation-cholesterol-trigly}
 </t>
   </si>
   <si>
@@ -1012,120 +1015,123 @@
     <t>Bundle.entry:mes-observation.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:mes-device</t>
-  </si>
-  <si>
-    <t>mes-device</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device {http://hl7.org/fhir/uv/phd/StructureDefinition/PhdDevice}
+    <t>Bundle.entry:mes-diagnostic-report</t>
+  </si>
+  <si>
+    <t>mes-diagnostic-report</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.resource</t>
+  </si>
+  <si>
+    <t>Report
+TestResultResultsLabsLaboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiagnosticReport {https://interop.esante.gouv.fr/ig/fhir/mesures/StructureDefinition/mesures-cholesterol-diagnostic-report}
 </t>
   </si>
   <si>
-    <t>Item used in healthcare</t>
-  </si>
-  <si>
-    <t>The characteristics, operational status and capabilities of a medical-related component of a medical device. A PHD is JUST the medical-related component.</t>
-  </si>
-  <si>
-    <t>For the initial scope, this Device resource is only applicable to describe a single node in the containment tree that is produced by the context scanner in any medical device that implements or derives from the ISO/IEEE 11073 standard and that does not represent a metric. Examples for such a node are MDS, VMD, or Channel.
-With PHD medical units, there is no medical scanner and the unit is only a single node, a single 'simple' MDS, and it is static. Thus a PHD has no parent 'Device'.  When a PHD supports multiple device specializations, the single unit description is still the case. A specialization is just an way to organize a set of metric objects that tend to be generated by a single sensor, but the device could expose metric objects from several specializations which usually means it has more than one sensor. In PHDs multiple specialization support is rare.</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:mes-device.response.outcome</t>
+    <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports</t>
+  </si>
+  <si>
+    <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.</t>
+  </si>
+  <si>
+    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
+  </si>
+  <si>
+    <t>ORU -&gt; OBR</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:mes-diagnostic-report.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1458,10 +1464,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.99609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.41796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="25.25" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="31.6640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -6978,10 +6984,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7079,7 +7085,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>190</v>
@@ -7191,7 +7197,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>191</v>
@@ -7305,7 +7311,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>192</v>
@@ -7421,7 +7427,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>193</v>
@@ -7533,7 +7539,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>196</v>
@@ -7647,14 +7653,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>200</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7673,16 +7679,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7747,10 +7753,10 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7761,7 +7767,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>205</v>
@@ -7873,7 +7879,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>209</v>
@@ -7985,7 +7991,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>210</v>
@@ -8099,7 +8105,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>211</v>
@@ -8215,7 +8221,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>212</v>
@@ -8329,7 +8335,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>218</v>
@@ -8443,7 +8449,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>223</v>
@@ -8555,7 +8561,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>227</v>
@@ -8667,7 +8673,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>228</v>
@@ -8781,7 +8787,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>229</v>
@@ -8897,7 +8903,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>230</v>
@@ -8943,7 +8949,7 @@
         <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>77</v>
@@ -9011,7 +9017,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>235</v>
@@ -9057,7 +9063,7 @@
         <v>77</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>77</v>
@@ -9125,7 +9131,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>239</v>
@@ -9239,7 +9245,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>242</v>
@@ -9353,7 +9359,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>245</v>
@@ -9467,7 +9473,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>248</v>
@@ -9581,7 +9587,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>251</v>
@@ -9693,7 +9699,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>255</v>
@@ -9805,7 +9811,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>256</v>
@@ -9919,7 +9925,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>257</v>
@@ -10035,7 +10041,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>258</v>
@@ -10149,7 +10155,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>261</v>
@@ -10263,7 +10269,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>264</v>
@@ -10377,7 +10383,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>268</v>
@@ -10491,7 +10497,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>272</v>
@@ -10605,20 +10611,20 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>87</v>
@@ -10719,7 +10725,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>190</v>
@@ -10831,7 +10837,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>191</v>
@@ -10945,7 +10951,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>192</v>
@@ -11061,7 +11067,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>193</v>
@@ -11173,7 +11179,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>196</v>
@@ -11287,14 +11293,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>200</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11313,16 +11319,16 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11387,10 +11393,10 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -11401,7 +11407,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>205</v>
@@ -11513,7 +11519,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>209</v>
@@ -11625,7 +11631,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>210</v>
@@ -11739,7 +11745,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>211</v>
@@ -11855,7 +11861,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>212</v>
@@ -11969,7 +11975,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>218</v>
@@ -12083,7 +12089,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>223</v>
@@ -12195,7 +12201,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>227</v>
@@ -12307,7 +12313,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>228</v>
@@ -12421,7 +12427,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>229</v>
@@ -12537,7 +12543,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>230</v>
@@ -12583,7 +12589,7 @@
         <v>77</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>77</v>
@@ -12651,7 +12657,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>235</v>
@@ -12697,7 +12703,7 @@
         <v>77</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>77</v>
@@ -12765,7 +12771,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>239</v>
@@ -12879,7 +12885,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>242</v>
@@ -12993,7 +12999,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>245</v>
@@ -13107,7 +13113,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>248</v>
@@ -13221,7 +13227,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>251</v>
@@ -13333,7 +13339,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>255</v>
@@ -13445,7 +13451,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>256</v>
@@ -13559,7 +13565,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>257</v>
@@ -13675,7 +13681,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>258</v>
@@ -13789,7 +13795,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>261</v>
@@ -13903,7 +13909,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>264</v>
@@ -14017,7 +14023,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>268</v>
@@ -14131,7 +14137,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>272</v>
@@ -14245,10 +14251,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14271,19 +14277,19 @@
         <v>88</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -14332,7 +14338,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:16:09+00:00</t>
+    <t>2024-10-30T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:20:03+00:00</t>
+    <t>2024-10-30T10:28:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:28:34+00:00</t>
+    <t>2024-10-30T10:31:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:31:07+00:00</t>
+    <t>2024-10-30T10:47:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:47:34+00:00</t>
+    <t>2024-10-30T10:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-lipid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:21:16+00:00</t>
+    <t>2024-10-30T13:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
